--- a/events.xlsx
+++ b/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Data Analysis\09. oct_7_to_9_2025\02. oct_8_2025\venv\MIERA_V1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A9C093-9769-4D0F-865B-404EF1B7E00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F6B44B-7129-4AE5-9E29-0A624540BC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -375,7 +375,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -399,7 +399,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>45944</v>
+        <v>45945</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -410,7 +410,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>45950</v>
+        <v>45940</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
